--- a/biology/Médecine/Institut_de_Pathologie_Senckenberg/Institut_de_Pathologie_Senckenberg.xlsx
+++ b/biology/Médecine/Institut_de_Pathologie_Senckenberg/Institut_de_Pathologie_Senckenberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut de Pathologie Senckenberg (allemand : Dr. Senckenbergisches Institut für Pathologie  ou Senckenbergisches Pathologisches Institut), anciennement connu sous le nom d'Institut de pathologie anatomique de la Fondation Senckenberg, est un institut pathologique de l'Université Goethe de Francfort.
 Il a été fondé en 1763 par Johann Christian Senckenberg sous le nom de Theatrum Anatomicum, dans le cadre de la Fondation Senckenberg.
-En 1914, l'institut a été intégré à l'Université Goethe de Francfort[1].
+En 1914, l'institut a été intégré à l'Université Goethe de Francfort.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Directeurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Karl-Weigert 1885-1904
 Eugène Albrecht 1904-1908
@@ -548,7 +562,9 @@
           <t>Personnalités liées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le professeur de pathologie Philipp Schwartz y a travaillé de 1919 jusqu'en 1933.
 Le docteur Joseph Berberich y a travaillé de 1920 à 1924.
